--- a/medicine/Enfance/Roger_Mello/Roger_Mello.xlsx
+++ b/medicine/Enfance/Roger_Mello/Roger_Mello.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Mello, né le 20 novembre 1965, est un écrivain et illustrateur brésilien, auteur de littérature d'enfance et de jeunesse.
 En 2014, il est lauréat du prestigieux Prix Hans Christian Andersen d'illustration.
@@ -514,11 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Jean fil à fil, MeMo, 2009.
-Catarineta (légende anonyme du XVIe siècle) (Nau "Catarineta"), Bruxelles, Éditions du Pépin, 2005.
-Illustrateur
-Cao Wenxuan, Plume, Fei, 2016.</t>
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jean fil à fil, MeMo, 2009.
+Catarineta (légende anonyme du XVIe siècle) (Nau "Catarineta"), Bruxelles, Éditions du Pépin, 2005.</t>
         </is>
       </c>
     </row>
@@ -543,13 +558,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Œuvres traduites en français</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cao Wenxuan, Plume, Fei, 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roger_Mello</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roger_Mello</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2014 :  Prix Hans Christian Andersen d'illustration.
-2019 à 2023 :  Sélection cinq années d'affilée pour le prix international, le Prix commémoratif Astrid-Lindgren[1].</t>
+2019 à 2023 :  Sélection cinq années d'affilée pour le prix international, le Prix commémoratif Astrid-Lindgren.</t>
         </is>
       </c>
     </row>
